--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07775A83-EC0B-CA49-B001-EB205CD63DA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A4CD898-AF9A-A04C-AA41-1A880E0140BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,21 +12,15 @@
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>OrderID</t>
   </si>
@@ -34,92 +28,191 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Nguyendangduc66@gmail.com</t>
-  </si>
-  <si>
-    <t>billll@banit.club</t>
-  </si>
-  <si>
-    <t>tokuda@duck2.club</t>
-  </si>
-  <si>
-    <t>takito@nada.ltd</t>
-  </si>
-  <si>
-    <t>detuduong@banit.me</t>
-  </si>
-  <si>
-    <t>baochau1602@gmail.com</t>
-  </si>
-  <si>
-    <t>vynguyen1501@gmail.com</t>
-  </si>
-  <si>
-    <t>levanminh016@gmail.com</t>
-  </si>
-  <si>
-    <t>levanminh017@gmail.com</t>
-  </si>
-  <si>
-    <t>levanminh018@gmail.com</t>
-  </si>
-  <si>
-    <t>levanminh019@gmail.com</t>
-  </si>
-  <si>
-    <t>levanminh020@gmail.com</t>
-  </si>
-  <si>
-    <t>qwer1@gmail.com</t>
-  </si>
-  <si>
-    <t>qwer5@gmail.com</t>
-  </si>
-  <si>
-    <t>qwer6@gmail.com</t>
-  </si>
-  <si>
-    <t>nguyenquocthien01@gmail.com</t>
-  </si>
-  <si>
-    <t>Taphuonganh@gmail.com</t>
-  </si>
-  <si>
-    <t>qwer9@gmail.com</t>
-  </si>
-  <si>
-    <t>tokuda2@banit.me</t>
-  </si>
-  <si>
-    <t>Zoba010@gmail.com</t>
-  </si>
-  <si>
-    <t>Zoba013@gmail.com</t>
-  </si>
-  <si>
-    <t>nguyenquocthien06@gmail.com</t>
-  </si>
-  <si>
-    <t>qwer014@gmail.com</t>
-  </si>
-  <si>
-    <t>tantaki@gmail.com</t>
-  </si>
-  <si>
-    <t>pignobig@gmail.com</t>
-  </si>
-  <si>
-    <t>doinay@gmail.com</t>
+    <t>gt1kt4@gmail.com</t>
+  </si>
+  <si>
+    <t>2ifpas@gmail.com</t>
+  </si>
+  <si>
+    <t>7uxdyu@gmail.com</t>
+  </si>
+  <si>
+    <t>4ulw0x@gmail.com</t>
+  </si>
+  <si>
+    <t>6y9rm9@gmail.com</t>
+  </si>
+  <si>
+    <t>mf20t3@gmail.com</t>
+  </si>
+  <si>
+    <t>6zx12o@gmail.com</t>
+  </si>
+  <si>
+    <t>06koeo@gmail.com</t>
+  </si>
+  <si>
+    <t>a444p7@gmail.com</t>
+  </si>
+  <si>
+    <t>7vzwvf@gmail.com</t>
+  </si>
+  <si>
+    <t>nfo42a@gmail.com</t>
+  </si>
+  <si>
+    <t>cok1yu@gmail.com</t>
+  </si>
+  <si>
+    <t>fs0ges@gmail.com</t>
+  </si>
+  <si>
+    <t>yc3rd2@gmail.com</t>
+  </si>
+  <si>
+    <t>8wgb2k@gmail.com</t>
+  </si>
+  <si>
+    <t>7c9kyc@gmail.com</t>
+  </si>
+  <si>
+    <t>rm2kdz@gmail.com</t>
+  </si>
+  <si>
+    <t>e9abl0@gmail.com</t>
+  </si>
+  <si>
+    <t>9vnl2c@gmail.com</t>
+  </si>
+  <si>
+    <t>3bgtav@gmail.com</t>
+  </si>
+  <si>
+    <t>3zcu6j@gmail.com</t>
+  </si>
+  <si>
+    <t>9m8jda@gmail.com</t>
+  </si>
+  <si>
+    <t>dsaj4r@gmail.com</t>
+  </si>
+  <si>
+    <t>lhwthl@gmail.com</t>
+  </si>
+  <si>
+    <t>zcawyr@gmail.com</t>
+  </si>
+  <si>
+    <t>psqrzq@gmail.com</t>
+  </si>
+  <si>
+    <t>gcrnig@gmail.com</t>
+  </si>
+  <si>
+    <t>sfbjgb@gmail.com</t>
+  </si>
+  <si>
+    <t>utdqsb@gmail.com</t>
+  </si>
+  <si>
+    <t>xvptql@gmail.com</t>
+  </si>
+  <si>
+    <t>niognl@gmail.com</t>
+  </si>
+  <si>
+    <t>noonvt@gmail.com</t>
+  </si>
+  <si>
+    <t>oflehs@gmail.com</t>
+  </si>
+  <si>
+    <t>imojkw@gmail.com</t>
+  </si>
+  <si>
+    <t>j72jpp@gmail.com</t>
+  </si>
+  <si>
+    <t>0680n9@gmail.com</t>
+  </si>
+  <si>
+    <t>qj97cs@gmail.com</t>
+  </si>
+  <si>
+    <t>92guov@gmail.com</t>
+  </si>
+  <si>
+    <t>d32n4v@gmail.com</t>
+  </si>
+  <si>
+    <t>uk1b32@gmail.com</t>
+  </si>
+  <si>
+    <t>bmoj1l@gmail.com</t>
+  </si>
+  <si>
+    <t>xjyaqu@gmail.com</t>
+  </si>
+  <si>
+    <t>uikomk@gmail.com</t>
+  </si>
+  <si>
+    <t>tccinu@gmail.com</t>
+  </si>
+  <si>
+    <t>gkgipe@gmail.com</t>
+  </si>
+  <si>
+    <t>0zwxx0@gmail.com</t>
+  </si>
+  <si>
+    <t>p01hp5@gmail.com</t>
+  </si>
+  <si>
+    <t>hfdsr5@gmail.com</t>
+  </si>
+  <si>
+    <t>gyr5w6@gmail.com</t>
+  </si>
+  <si>
+    <t>fb966e@gmail.com</t>
+  </si>
+  <si>
+    <t>zjehqh@gmail.com</t>
+  </si>
+  <si>
+    <t>1n236t@gmail.com</t>
+  </si>
+  <si>
+    <t>z2zuyb@gmail.com</t>
+  </si>
+  <si>
+    <t>bh51xi@gmail.com</t>
+  </si>
+  <si>
+    <t>v6yzac@gmail.com</t>
+  </si>
+  <si>
+    <t>74mz3w@gmail.com</t>
+  </si>
+  <si>
+    <t>mdlcdb@gmail.com</t>
+  </si>
+  <si>
+    <t>e0rf06@gmail.com</t>
+  </si>
+  <si>
+    <t>19837l@gmail.com</t>
+  </si>
+  <si>
+    <t>4me0ad@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +223,111 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F4A7E"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F4A7E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1F4A7E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F4A7E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -142,27 +340,188 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEEF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B9B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DDE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD99694"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D69B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2A1C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94CDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5181BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0514D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ABA58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E62A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CACC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79544"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,57 +531,212 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF5181BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA8C0DE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF96B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5181BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5181BD"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6F54CD11-3A80-484A-94EB-F55527132AA1}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="好" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="差" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="强调文字颜色 1" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="标题" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="标题 1" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="标题 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="标题 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="标题 4" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="检查单元格" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="汇总" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="注释" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="解释性文本" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="警告文本" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="计算" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="输入" xfId="39" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="输出" xfId="40" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="适中" xfId="41" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="链接单元格" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,6 +749,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="blob:file:///f82227ef-6a0d-4f6f-9977-d00dc0c1211a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2381250" y="4000500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="https://laz-img-cdn.alicdn.com/tfs/TB1hE2pir_I8KJjy1XaXXbsxpXa-110-120.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11430000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,16 +1115,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -522,7 +1137,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>200289947623235</v>
+        <v>201842729332195</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -530,23 +1145,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>200268453190427</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>201816800524226</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>200289972320709</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>201841579332199</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>200290941524525</v>
+        <v>201817803058424</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -554,15 +1169,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>200291711822445</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>201844513662346</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>200266668072934</v>
+        <v>201840978062347</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -570,7 +1185,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>200288735972166</v>
+        <v>201844708858429</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -578,277 +1193,464 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>200290164158461</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>201813081364341</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>200287529420932</v>
+      <c r="A10" s="2">
+        <v>201842369968135</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>200289522928067</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
+      <c r="A11" s="2">
+        <v>201816823324241</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>200289525230074</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
+      <c r="A12" s="2">
+        <v>201817427266147</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>200291310926936</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
+      <c r="A13" s="2">
+        <v>201845731358432</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>200289716228092</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
+      <c r="A14" s="2">
+        <v>201815856160358</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>200287193606142</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
+      <c r="A15" s="2">
+        <v>201817036172061</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>200287984810783</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>15</v>
+      <c r="A16" s="2">
+        <v>201818035870117</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>200268095708831</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
+      <c r="A17" s="2">
+        <v>201818245370118</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>200268850867250</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>26</v>
+      <c r="A18" s="2">
+        <v>201844747372063</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>200270201494008</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>201818050966152</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>200276448882274</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>18</v>
+        <v>201820401366154</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>200274025822942</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>201820402560363</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>200296755020742</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>20</v>
+        <v>201820207360364</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>200275099890710</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>21</v>
+        <v>201821810972065</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>200275499054082</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>201847541666158</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>200280229522505</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>27</v>
+        <v>201816478172066</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>200278619932243</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>23</v>
+        <v>201848905260367</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>200322309228484</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>24</v>
+      <c r="A27" s="2">
+        <v>201820429272067</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2">
+        <v>201822436164350</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2">
+        <v>201849306858441</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2">
+        <v>201845599758442</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2">
+        <v>201850114464351</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="A32" s="2">
+        <v>201821053566160</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>201826401762369</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>201849333062370</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>201824227060375</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>201821076864356</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>201825824166165</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>201821684962371</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>201823851158445</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>201825437772072</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>201828002472073</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>201827224860378</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>201756827004706</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>201790573400895</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>201845731358432</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>201808735708190</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>201801262108501</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>201789379202223</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>201798640272698</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>201746076274700</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>201750041382215</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>201783988382216</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>201785595608274</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>201785784612678</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>201785216110455</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>201782672406500</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>201816970812152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>201786046706508</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>201818362208286</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>201817792406521</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>201788638014092</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>201787072714106</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{56F565F4-67B0-0A4F-9EE3-3EF8C42005F2}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{0CEF4381-4EC9-4340-9830-20B36C5637EA}"/>
-    <hyperlink ref="B25" r:id="rId3" xr:uid="{000BF9B3-4944-C144-8D72-08ED31F3E88A}"/>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{959D38A0-8936-F143-9CBC-D88C7628299C}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{7A3B3207-CB22-9147-BCC4-E62E295E85FE}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{DE5ABD46-D25A-FC43-AFE7-0CA85AFCE56B}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{7DFD1DA0-1310-3B41-BBF9-8F0EE72031DD}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{CD013837-EE3A-5B41-BD64-4083FD7C48AD}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{6EDB52DE-6EE7-0A4E-880A-908CB0DA8A0C}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{FBF191C5-ACBD-C24E-8CB1-8989E9B587B2}"/>
+    <hyperlink ref="B42" r:id="rId8" xr:uid="{22809F2C-0A85-C148-BFE4-544EF5FF1C54}"/>
+    <hyperlink ref="B44" r:id="rId9" xr:uid="{5FF0F55C-16E6-F448-AC54-88C8F99C377A}"/>
+    <hyperlink ref="B45" r:id="rId10" xr:uid="{C81108B5-B696-474B-8576-62422147930E}"/>
+    <hyperlink ref="B46" r:id="rId11" xr:uid="{C4EBFDF8-36C8-9148-9481-944F73BBF7DB}"/>
+    <hyperlink ref="B47" r:id="rId12" xr:uid="{1FF406BD-58BD-9448-8F1A-8AA510B3B6D7}"/>
+    <hyperlink ref="B48" r:id="rId13" xr:uid="{68FBD841-1203-C445-A0DF-B80F72118558}"/>
+    <hyperlink ref="B49" r:id="rId14" xr:uid="{3DD63743-0238-6442-8317-16D70B3A07B1}"/>
+    <hyperlink ref="B50" r:id="rId15" xr:uid="{E3210435-C2D5-B44E-8F0B-0D4A0C32080C}"/>
+    <hyperlink ref="B52" r:id="rId16" xr:uid="{EC2FD9FD-D452-044C-8E7D-6B9C5ADB77AF}"/>
+    <hyperlink ref="B54" r:id="rId17" xr:uid="{74E5857C-4D71-FB42-A3A6-40645A450B66}"/>
+    <hyperlink ref="B59" r:id="rId18" xr:uid="{C9AF0FB6-A69C-BA41-AA5C-F2F7B6AE50F1}"/>
+    <hyperlink ref="B60" r:id="rId19" xr:uid="{A0163AEC-0734-0D44-B78F-9154EA9EA4D7}"/>
+    <hyperlink ref="B62" r:id="rId20" xr:uid="{55A2D1B0-D488-E84A-81D6-AC672FDB1F85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>